--- a/RawData-Collections/Stack.xlsx
+++ b/RawData-Collections/Stack.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Desktop\EstimateEnergyConsumptionOfJavaPrograms\RawData-Collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28E1AF60-6980-44E2-9B15-65763EC6E8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D8BD848A-3316-4DCB-B4AD-FE7BAC77120B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stack" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -921,11 +921,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,7 +1006,7 @@
         <v>8.5898590089999995</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1">
         <v>60.202442390000002</v>
@@ -1044,7 +1044,7 @@
         <v>8.3087997439999999</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" s="1">
         <v>56.792979080000002</v>
@@ -1082,7 +1082,7 @@
         <v>14.230995180000001</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1">
         <v>43.458039460000002</v>
@@ -1120,7 +1120,7 @@
         <v>12.08629608</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1">
         <v>45.794041569999997</v>
@@ -1158,7 +1158,7 @@
         <v>11.78814697</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1">
         <v>51.712203709999997</v>
@@ -1196,7 +1196,7 @@
         <v>10.494544980000001</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1">
         <v>66.052557070000006</v>
@@ -1234,7 +1234,7 @@
         <v>8.185317993</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1">
         <v>56.692869809999998</v>
@@ -1272,7 +1272,7 @@
         <v>8.6056594850000003</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1">
         <v>54.830717800000002</v>
@@ -1310,7 +1310,7 @@
         <v>11.10906219</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1">
         <v>57.74076402</v>
@@ -1348,7 +1348,7 @@
         <v>11.99017334</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1">
         <v>55.03638488</v>
@@ -1386,7 +1386,7 @@
         <v>11.35762787</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1">
         <v>52.708087460000002</v>
@@ -1424,7 +1424,7 @@
         <v>10.352409359999999</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1">
         <v>56.57973526</v>
@@ -1462,7 +1462,7 @@
         <v>10.72955322</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1">
         <v>34.870311170000001</v>
@@ -1500,7 +1500,7 @@
         <v>12.510528559999999</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1">
         <v>48.448025729999998</v>
@@ -1538,7 +1538,7 @@
         <v>11.79347229</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1">
         <v>53.456831880000003</v>
@@ -1576,7 +1576,7 @@
         <v>11.16632843</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1">
         <v>56.932597190000003</v>
@@ -1614,7 +1614,7 @@
         <v>10.44275665</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1">
         <v>53.113054409999997</v>
@@ -1652,7 +1652,7 @@
         <v>10.62127686</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J19" s="1">
         <v>52.138863190000002</v>
@@ -1690,7 +1690,7 @@
         <v>10.060264589999999</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1">
         <v>53.547193129999997</v>
@@ -1728,7 +1728,7 @@
         <v>10.4404068</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1">
         <v>53.29513566</v>
@@ -1766,7 +1766,7 @@
         <v>9.8365097049999992</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1">
         <v>61.877251430000001</v>
@@ -1804,7 +1804,7 @@
         <v>7.9299621580000004</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1">
         <v>55.682535510000001</v>
@@ -1842,7 +1842,7 @@
         <v>8.0362854000000006</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J24" s="1">
         <v>54.970452559999998</v>
@@ -1880,7 +1880,7 @@
         <v>8.0369110110000008</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J25" s="1">
         <v>55.700615050000003</v>
@@ -1918,7 +1918,7 @@
         <v>8.2213287350000002</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J26" s="1">
         <v>61.339458809999996</v>
@@ -1956,7 +1956,7 @@
         <v>8.1442260740000005</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J27" s="1">
         <v>64.524378609999999</v>
@@ -1994,7 +1994,7 @@
         <v>8.4017257690000005</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J28" s="1">
         <v>57.120088580000001</v>
@@ -2032,7 +2032,7 @@
         <v>8.3697967529999993</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J29" s="1">
         <v>57.718125809999997</v>
@@ -2070,7 +2070,7 @@
         <v>9.653091431</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J30" s="1">
         <v>57.672617270000003</v>
@@ -2108,7 +2108,7 @@
         <v>8.4958801269999995</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J31" s="1">
         <v>61.217923540000001</v>
@@ -2146,7 +2146,7 @@
         <v>9.6688613889999999</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J32" s="1">
         <v>59.368805299999998</v>
@@ -2184,7 +2184,7 @@
         <v>8.4958724980000007</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J33" s="1">
         <v>62.685445059999999</v>
@@ -2222,7 +2222,7 @@
         <v>8.4812850950000005</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J34" s="1">
         <v>56.370494630000003</v>
@@ -2260,7 +2260,7 @@
         <v>8.3698272710000001</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J35" s="1">
         <v>55.601081000000001</v>
@@ -2298,7 +2298,7 @@
         <v>8.4540100099999993</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J36" s="1">
         <v>59.777851740000003</v>
@@ -2336,7 +2336,7 @@
         <v>9.6793594360000004</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J37" s="1">
         <v>59.250821190000003</v>
@@ -2374,7 +2374,7 @@
         <v>8.1371002200000007</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J38" s="1">
         <v>57.841397479999998</v>
@@ -2412,7 +2412,7 @@
         <v>8.1034774780000003</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J39" s="1">
         <v>58.495316299999999</v>
@@ -2450,7 +2450,7 @@
         <v>8.3700561520000001</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J40" s="1">
         <v>56.054084189999998</v>
@@ -2488,7 +2488,7 @@
         <v>8.3699874879999996</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J41" s="1">
         <v>56.038863849999998</v>
@@ -2526,7 +2526,7 @@
         <v>8.5150375369999995</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J42" s="1">
         <v>59.54332625</v>
@@ -2564,7 +2564,7 @@
         <v>8.2610092159999997</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J43" s="1">
         <v>58.402627680000002</v>
@@ -2602,7 +2602,7 @@
         <v>8.4562759399999994</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J44" s="1">
         <v>57.713718350000001</v>
@@ -2640,7 +2640,7 @@
         <v>8.1361465450000008</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J45" s="1">
         <v>59.335520129999999</v>
@@ -2678,7 +2678,7 @@
         <v>8.3619613650000009</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J46" s="1">
         <v>57.674187099999997</v>
@@ -2716,7 +2716,7 @@
         <v>8.4596633909999994</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J47" s="1">
         <v>57.647227110000003</v>
@@ -2754,7 +2754,7 @@
         <v>8.5161361689999993</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J48" s="1">
         <v>57.668928979999997</v>
@@ -2792,7 +2792,7 @@
         <v>7.897949219</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J49" s="1">
         <v>59.739888809999997</v>
@@ -2830,7 +2830,7 @@
         <v>8.1952667239999997</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J50" s="1">
         <v>51.3634798</v>
@@ -2868,7 +2868,7 @@
         <v>8.0585861209999994</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J51" s="1">
         <v>59.15481561</v>
@@ -2906,7 +2906,7 @@
         <v>8.2078018190000002</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J52" s="1">
         <v>59.426213670000003</v>
@@ -2944,7 +2944,7 @@
         <v>8.7629013059999998</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J53" s="1">
         <v>61.667903529999997</v>
@@ -2982,7 +2982,7 @@
         <v>9.5617904659999997</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J54" s="1">
         <v>62.274072060000002</v>
@@ -3020,7 +3020,7 @@
         <v>8.0097045900000001</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J55" s="1">
         <v>58.49515933</v>
@@ -3058,7 +3058,7 @@
         <v>8.1852416990000005</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J56" s="1">
         <v>58.7232451</v>
@@ -3096,7 +3096,7 @@
         <v>8.4958419799999998</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J57" s="1">
         <v>58.6311678</v>
@@ -3134,7 +3134,7 @@
         <v>8.1641922000000005</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J58" s="1">
         <v>58.623102619999997</v>
@@ -3172,7 +3172,7 @@
         <v>8.4958190919999996</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J59" s="1">
         <v>63.028661110000002</v>
@@ -3210,7 +3210,7 @@
         <v>8.4958724980000007</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J60" s="1">
         <v>63.074248699999998</v>
@@ -3248,7 +3248,7 @@
         <v>8.0721435550000002</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J61" s="1">
         <v>58.390304139999998</v>
@@ -3286,7 +3286,7 @@
         <v>8.0243759160000003</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J62" s="1">
         <v>58.313024900000002</v>
@@ -3324,7 +3324,7 @@
         <v>8.3255386349999991</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J63" s="1">
         <v>59.518263099999999</v>
@@ -3362,7 +3362,7 @@
         <v>8.1989746090000004</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J64" s="1">
         <v>59.119779219999998</v>
@@ -3400,7 +3400,7 @@
         <v>9.5844039920000004</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J65" s="1">
         <v>57.02008593</v>
@@ -3438,7 +3438,7 @@
         <v>8.0723342900000006</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J66" s="1">
         <v>60.11125053</v>
@@ -3476,7 +3476,7 @@
         <v>8.3727951049999998</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J67" s="1">
         <v>56.139463239999998</v>
@@ -3514,7 +3514,7 @@
         <v>8.0877761840000009</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J68" s="1">
         <v>58.22154338</v>
@@ -3552,7 +3552,7 @@
         <v>8.1828155519999992</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J69" s="1">
         <v>60.108642420000002</v>
@@ -3590,7 +3590,7 @@
         <v>8.1339874269999992</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J70" s="1">
         <v>58.63637069</v>
@@ -3628,7 +3628,7 @@
         <v>8.0863265989999995</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J71" s="1">
         <v>58.527189180000001</v>
@@ -3666,7 +3666,7 @@
         <v>8.6243667599999991</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J72" s="1">
         <v>62.593478810000001</v>
@@ -3704,7 +3704,7 @@
         <v>8.3119506839999993</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J73" s="1">
         <v>57.780632789999999</v>
@@ -3742,7 +3742,7 @@
         <v>8.3256072999999997</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J74" s="1">
         <v>57.649178159999998</v>
@@ -3780,7 +3780,7 @@
         <v>8.2209701539999998</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J75" s="1">
         <v>56.269605769999998</v>
@@ -3818,7 +3818,7 @@
         <v>8.0877914430000004</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J76" s="1">
         <v>58.170049149999997</v>
@@ -3856,7 +3856,7 @@
         <v>8.7597427369999998</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J77" s="1">
         <v>62.186612519999997</v>
@@ -3894,7 +3894,7 @@
         <v>8.1852645870000007</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J78" s="1">
         <v>57.766890099999998</v>
@@ -3932,7 +3932,7 @@
         <v>8.6915435789999993</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J79" s="1">
         <v>61.745924940000002</v>
@@ -3970,7 +3970,7 @@
         <v>8.1853256230000007</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J80" s="1">
         <v>57.267830840000002</v>
@@ -4008,7 +4008,7 @@
         <v>8.4813690190000006</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J81" s="1">
         <v>58.377421609999999</v>
@@ -4046,7 +4046,7 @@
         <v>8.2303085330000005</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J82" s="1">
         <v>59.308102589999997</v>
@@ -4084,7 +4084,7 @@
         <v>8.4758987430000001</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J83" s="1">
         <v>57.181793229999997</v>
@@ -4122,7 +4122,7 @@
         <v>8.0585861209999994</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J84" s="1">
         <v>58.186152569999997</v>
@@ -4160,7 +4160,7 @@
         <v>8.6093292239999997</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J85" s="1">
         <v>60.406088930000003</v>
@@ -4198,7 +4198,7 @@
         <v>8.0585632319999991</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J86" s="1">
         <v>58.927759049999999</v>
@@ -4236,7 +4236,7 @@
         <v>8.2885360719999994</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J87" s="1">
         <v>58.27414065</v>
@@ -4274,7 +4274,7 @@
         <v>8.0107650760000002</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J88" s="1">
         <v>60.899587189999998</v>
@@ -4312,7 +4312,7 @@
         <v>9.1416397089999997</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J89" s="1">
         <v>58.676764249999998</v>
@@ -4350,7 +4350,7 @@
         <v>8.6089401250000002</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J90" s="1">
         <v>60.601872569999998</v>
@@ -4388,7 +4388,7 @@
         <v>8.4698333740000002</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J91" s="1">
         <v>61.072397649999999</v>
@@ -4426,7 +4426,7 @@
         <v>8.2143554689999991</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J92" s="1">
         <v>57.792555200000002</v>
@@ -4464,7 +4464,7 @@
         <v>8.4831237789999996</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J93" s="1">
         <v>56.752376120000001</v>
@@ -4502,7 +4502,7 @@
         <v>8.0108108520000005</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J94" s="1">
         <v>55.552255359999997</v>
@@ -4540,7 +4540,7 @@
         <v>8.0584716800000002</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J95" s="1">
         <v>60.35305606</v>
@@ -4578,7 +4578,7 @@
         <v>8.3099670410000002</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J96" s="1">
         <v>56.21635758</v>
@@ -4616,7 +4616,7 @@
         <v>8.3090820310000009</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J97" s="1">
         <v>59.757554370000001</v>
@@ -4654,7 +4654,7 @@
         <v>8.30859375</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J98" s="1">
         <v>59.28622498</v>
@@ -4692,7 +4692,7 @@
         <v>8.0093078609999999</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J99" s="1">
         <v>59.684103999999998</v>
@@ -4730,7 +4730,7 @@
         <v>8.4958572389999993</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J100" s="1">
         <v>61.090061980000002</v>
@@ -4768,7 +4768,7 @@
         <v>9.7576751710000007</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J101" s="1">
         <v>64.166545979999995</v>
